--- a/data files/Purchase Order/surgiwere.xlsx
+++ b/data files/Purchase Order/surgiwere.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0695E4C-2630-4655-B1D6-B1B1DA23C772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>To,</t>
   </si>
@@ -106,12 +107,27 @@
   </si>
   <si>
     <t>D306-2</t>
+  </si>
+  <si>
+    <t>SI.</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Qty.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Unit</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,12 +211,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -242,11 +264,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -277,6 +299,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,14 +318,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +366,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -404,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,21 +611,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="23"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
@@ -600,14 +634,14 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -616,7 +650,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -625,7 +659,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -634,14 +668,14 @@
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -650,7 +684,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -659,235 +693,248 @@
       <c r="D8" s="5"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="19">
+      <c r="C11" s="19">
         <v>50</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19">
+      <c r="C12" s="19">
         <v>100</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="D12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="19">
+      <c r="C13" s="19">
         <v>100</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="D13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="19">
+      <c r="C14" s="19">
         <v>60</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="C15" s="19">
         <v>50</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="D15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="19">
+      <c r="C16" s="19">
         <v>30</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="19">
+      <c r="C17" s="19">
         <v>20</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="D17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="19">
+      <c r="C18" s="19">
         <v>15</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="D18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="6"/>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="6"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="6"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="6"/>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="6"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="19">
+      <c r="C22" s="19">
         <v>100</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="D22" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="6"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="19">
+      <c r="C23" s="19">
         <v>20</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="D23" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="6"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="19">
+      <c r="C24" s="19">
         <v>60</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="D24" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="19">
+      <c r="C25" s="19">
         <v>10</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="D25" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="C26" s="19">
         <v>10</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="D26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="19"/>
@@ -895,7 +942,7 @@
       <c r="E27" s="6"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>8</v>
       </c>
@@ -905,7 +952,7 @@
       <c r="E28" s="6"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>9</v>
       </c>
@@ -915,7 +962,7 @@
       <c r="E29" s="6"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>10</v>
       </c>
@@ -925,7 +972,7 @@
       <c r="E30" s="6"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>11</v>
       </c>
@@ -935,7 +982,7 @@
       <c r="E31" s="6"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="19"/>
@@ -943,7 +990,7 @@
       <c r="E32" s="6"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="19"/>
@@ -951,7 +998,7 @@
       <c r="E33" s="6"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="19"/>
@@ -959,7 +1006,7 @@
       <c r="E34" s="6"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
@@ -967,168 +1014,168 @@
       <c r="E35" s="6"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="E36" s="6"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
       <c r="C37" s="20"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
       <c r="C38" s="21"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="20"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="20"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
       <c r="C41" s="20"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="C42" s="22"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="11"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="11"/>
       <c r="C44" s="6"/>
       <c r="D44" s="14"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="11"/>
       <c r="C45" s="6"/>
       <c r="D45" s="14"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:10" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="18" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="11"/>
       <c r="C50" s="6"/>
       <c r="D50" s="16"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
       <c r="C51" s="6"/>
       <c r="D51" s="16"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
       <c r="C52" s="6"/>
       <c r="D52" s="9"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
       <c r="C53" s="6"/>
       <c r="D53" s="16"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="11"/>
       <c r="C54" s="6"/>
       <c r="D54" s="12"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
       <c r="D55" s="12"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="3"/>
       <c r="C56" s="6"/>
       <c r="D56" s="12"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C57" s="6"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C68" s="6"/>
     </row>
   </sheetData>
@@ -1138,24 +1185,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data files/Purchase Order/surgiwere.xlsx
+++ b/data files/Purchase Order/surgiwere.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0695E4C-2630-4655-B1D6-B1B1DA23C772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83363E6B-4826-4BD3-8F02-37211B61E271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>To,</t>
   </si>
@@ -98,12 +98,6 @@
   </si>
   <si>
     <t>WM101</t>
-  </si>
-  <si>
-    <t>24/10/24</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>D306-2</t>
@@ -614,34 +608,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="23"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>27</v>
-      </c>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -650,7 +642,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -659,7 +651,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -668,14 +660,14 @@
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -684,7 +676,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -693,51 +685,49 @@
       <c r="D8" s="5"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>34</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="19">
-        <v>50</v>
-      </c>
+      <c r="C11" s="19"/>
       <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="13"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>4</v>
@@ -745,12 +735,12 @@
       <c r="E12" s="13"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>4</v>
@@ -758,12 +748,12 @@
       <c r="E13" s="13"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="19">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>18</v>
@@ -773,12 +763,12 @@
       </c>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="19">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>15</v>
@@ -788,12 +778,12 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="19">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>15</v>
@@ -803,7 +793,7 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
@@ -818,12 +808,12 @@
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>15</v>
@@ -834,7 +824,7 @@
       <c r="F18" s="6"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="19"/>
       <c r="D19" s="27"/>
@@ -842,13 +832,11 @@
       <c r="F19" s="6"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="C20" s="19"/>
       <c r="D20" s="27" t="s">
         <v>4</v>
       </c>
@@ -856,7 +844,7 @@
       <c r="F20" s="6"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="19"/>
       <c r="D21" s="27"/>
@@ -864,12 +852,12 @@
       <c r="F21" s="6"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="19">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>4</v>
@@ -878,12 +866,12 @@
       <c r="F22" s="6"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>4</v>
@@ -892,13 +880,11 @@
       <c r="F23" s="6"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="19">
-        <v>60</v>
-      </c>
+      <c r="C24" s="19"/>
       <c r="D24" s="27" t="s">
         <v>4</v>
       </c>
@@ -906,13 +892,11 @@
       <c r="F24" s="6"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="19">
-        <v>10</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="27" t="s">
         <v>4</v>
       </c>
@@ -920,12 +904,12 @@
       <c r="F25" s="6"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>4</v>
@@ -934,15 +918,15 @@
       <c r="F26" s="6"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>8</v>
       </c>
@@ -952,7 +936,7 @@
       <c r="E28" s="6"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>9</v>
       </c>
@@ -962,7 +946,7 @@
       <c r="E29" s="6"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>10</v>
       </c>
@@ -972,7 +956,7 @@
       <c r="E30" s="6"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>11</v>
       </c>
@@ -982,7 +966,7 @@
       <c r="E31" s="6"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="19"/>
@@ -990,7 +974,7 @@
       <c r="E32" s="6"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="19"/>
@@ -998,7 +982,7 @@
       <c r="E33" s="6"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="19"/>
@@ -1006,7 +990,7 @@
       <c r="E34" s="6"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
@@ -1014,168 +998,168 @@
       <c r="E35" s="6"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="E36" s="6"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="20"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="21"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="20"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="20"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="C41" s="20"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="22"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="11"/>
       <c r="C44" s="6"/>
       <c r="D44" s="14"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="11"/>
       <c r="C45" s="6"/>
       <c r="D45" s="14"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:10" s="18" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="50" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" s="6"/>
       <c r="D50" s="16"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
       <c r="C51" s="6"/>
       <c r="D51" s="16"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="C52" s="6"/>
       <c r="D52" s="9"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="C53" s="6"/>
       <c r="D53" s="16"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
       <c r="C54" s="6"/>
       <c r="D54" s="12"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
       <c r="D55" s="12"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="6"/>
       <c r="D56" s="12"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" s="6"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C68" s="6"/>
     </row>
   </sheetData>
@@ -1190,7 +1174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1202,7 +1186,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
